--- a/Excel Files/Stats_hL0.xlsx
+++ b/Excel Files/Stats_hL0.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Stats_hL0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -847,52 +844,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.82</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.64</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.95</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1599999999999999</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.29</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.83</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.87</c:v>
+                  <c:v>1.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,11 +905,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1642452768"/>
-        <c:axId val="-1642448960"/>
+        <c:axId val="-2014111472"/>
+        <c:axId val="-2014103312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1642452768"/>
+        <c:axId val="-2014111472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,7 +1022,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1642448960"/>
+        <c:crossAx val="-2014103312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1033,7 +1030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1642448960"/>
+        <c:axId val="-2014103312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,7 +1137,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1642452768"/>
+        <c:crossAx val="-2014111472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1782,196 +1779,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Stats_hL15"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="M2">
-            <v>0.13</v>
-          </cell>
-          <cell r="R2">
-            <v>2</v>
-          </cell>
-          <cell r="S2">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="M3">
-            <v>0.15</v>
-          </cell>
-          <cell r="R3">
-            <v>2</v>
-          </cell>
-          <cell r="S3">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="M4">
-            <v>0.14000000000000001</v>
-          </cell>
-          <cell r="R4">
-            <v>2</v>
-          </cell>
-          <cell r="S4">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>0.13</v>
-          </cell>
-          <cell r="R5">
-            <v>2</v>
-          </cell>
-          <cell r="S5">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0.36</v>
-          </cell>
-          <cell r="R6">
-            <v>4</v>
-          </cell>
-          <cell r="S6">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="M7">
-            <v>0.4</v>
-          </cell>
-          <cell r="R7">
-            <v>4</v>
-          </cell>
-          <cell r="S7">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="M8">
-            <v>0.4</v>
-          </cell>
-          <cell r="R8">
-            <v>4</v>
-          </cell>
-          <cell r="S8">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="M9">
-            <v>0.46</v>
-          </cell>
-          <cell r="R9">
-            <v>4</v>
-          </cell>
-          <cell r="S9">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="M10">
-            <v>0.43</v>
-          </cell>
-          <cell r="R10">
-            <v>5</v>
-          </cell>
-          <cell r="S10">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="M11">
-            <v>0.44</v>
-          </cell>
-          <cell r="R11">
-            <v>5</v>
-          </cell>
-          <cell r="S11">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="M12">
-            <v>0.44</v>
-          </cell>
-          <cell r="R12">
-            <v>5</v>
-          </cell>
-          <cell r="S12">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="M13">
-            <v>0.48</v>
-          </cell>
-          <cell r="R13">
-            <v>5</v>
-          </cell>
-          <cell r="S13">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="M14">
-            <v>0.51</v>
-          </cell>
-          <cell r="R14">
-            <v>10</v>
-          </cell>
-          <cell r="S14">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="M15">
-            <v>0.56000000000000005</v>
-          </cell>
-          <cell r="R15">
-            <v>10</v>
-          </cell>
-          <cell r="S15">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="M16">
-            <v>0.6</v>
-          </cell>
-          <cell r="R16">
-            <v>10</v>
-          </cell>
-          <cell r="S16">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="M17">
-            <v>0.68</v>
-          </cell>
-          <cell r="R17">
-            <v>10</v>
-          </cell>
-          <cell r="S17">
-            <v>10</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2304,55 +2111,55 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2887</v>
+        <v>3885</v>
       </c>
       <c r="B2">
-        <v>2546</v>
+        <v>2617</v>
       </c>
       <c r="C2">
-        <v>341</v>
+        <v>1268</v>
       </c>
       <c r="D2">
-        <v>1787</v>
+        <v>1822</v>
       </c>
       <c r="E2">
-        <v>1100</v>
+        <v>2063</v>
       </c>
       <c r="F2">
-        <v>1602</v>
+        <v>1241</v>
       </c>
       <c r="G2">
-        <v>944</v>
+        <v>1376</v>
       </c>
       <c r="H2">
-        <v>185</v>
+        <v>581</v>
       </c>
       <c r="I2">
-        <v>156</v>
+        <v>687</v>
       </c>
       <c r="J2">
-        <v>254</v>
+        <v>39</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>6.35</v>
+        <v>2.56</v>
       </c>
       <c r="M2" s="1">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="N2">
-        <v>0.31</v>
+        <v>0.11</v>
       </c>
       <c r="O2">
-        <v>-0.61</v>
+        <v>-0.22</v>
       </c>
       <c r="P2">
         <v>28.13</v>
       </c>
       <c r="Q2">
-        <v>-23.51</v>
+        <v>-28.16</v>
       </c>
       <c r="R2" s="2">
         <v>2</v>
@@ -2363,55 +2170,55 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2878</v>
+        <v>3880</v>
       </c>
       <c r="B3">
-        <v>2537</v>
+        <v>2612</v>
       </c>
       <c r="C3">
-        <v>341</v>
+        <v>1268</v>
       </c>
       <c r="D3">
-        <v>1424</v>
+        <v>1403</v>
       </c>
       <c r="E3">
-        <v>1454</v>
+        <v>2477</v>
       </c>
       <c r="F3">
-        <v>1252</v>
+        <v>912</v>
       </c>
       <c r="G3">
-        <v>1285</v>
+        <v>1700</v>
       </c>
       <c r="H3">
-        <v>172</v>
+        <v>491</v>
       </c>
       <c r="I3">
-        <v>169</v>
+        <v>777</v>
       </c>
       <c r="J3">
-        <v>486</v>
+        <v>81</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>10.76</v>
+        <v>4.18</v>
       </c>
       <c r="M3" s="1">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="N3">
-        <v>0.27</v>
+        <v>0.11</v>
       </c>
       <c r="O3">
-        <v>-0.48</v>
+        <v>-0.18</v>
       </c>
       <c r="P3">
         <v>28.13</v>
       </c>
       <c r="Q3">
-        <v>-38.69</v>
+        <v>-28.16</v>
       </c>
       <c r="R3" s="2">
         <v>2</v>
@@ -2422,55 +2229,55 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2878</v>
+        <v>3878</v>
       </c>
       <c r="B4">
-        <v>2537</v>
+        <v>2610</v>
       </c>
       <c r="C4">
-        <v>341</v>
+        <v>1268</v>
       </c>
       <c r="D4">
-        <v>1346</v>
+        <v>1330</v>
       </c>
       <c r="E4">
-        <v>1532</v>
+        <v>2548</v>
       </c>
       <c r="F4">
-        <v>1176</v>
+        <v>859</v>
       </c>
       <c r="G4">
-        <v>1361</v>
+        <v>1751</v>
       </c>
       <c r="H4">
-        <v>170</v>
+        <v>471</v>
       </c>
       <c r="I4">
-        <v>171</v>
+        <v>797</v>
       </c>
       <c r="J4">
-        <v>486</v>
+        <v>81</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>12.35</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="M4" s="1">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="N4">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="O4">
-        <v>-0.48</v>
+        <v>-0.19</v>
       </c>
       <c r="P4">
         <v>28.13</v>
       </c>
       <c r="Q4">
-        <v>-38.69</v>
+        <v>-28.16</v>
       </c>
       <c r="R4" s="2">
         <v>2</v>
@@ -2481,55 +2288,55 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2867</v>
+        <v>3874</v>
       </c>
       <c r="B5">
-        <v>2526</v>
+        <v>2607</v>
       </c>
       <c r="C5">
-        <v>341</v>
+        <v>1267</v>
       </c>
       <c r="D5">
         <v>1243</v>
       </c>
       <c r="E5">
-        <v>1624</v>
+        <v>2631</v>
       </c>
       <c r="F5">
-        <v>1075</v>
+        <v>789</v>
       </c>
       <c r="G5">
-        <v>1451</v>
+        <v>1818</v>
       </c>
       <c r="H5">
-        <v>168</v>
+        <v>454</v>
       </c>
       <c r="I5">
-        <v>173</v>
+        <v>813</v>
       </c>
       <c r="J5">
-        <v>486</v>
+        <v>143</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>16.600000000000001</v>
+        <v>6.71</v>
       </c>
       <c r="M5" s="1">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="N5">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="O5">
-        <v>-0.28999999999999998</v>
+        <v>-0.13</v>
       </c>
       <c r="P5">
         <v>28.13</v>
       </c>
       <c r="Q5">
-        <v>-38.69</v>
+        <v>-28.16</v>
       </c>
       <c r="R5" s="2">
         <v>2</v>
@@ -2540,55 +2347,55 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2873</v>
+        <v>3882</v>
       </c>
       <c r="B6">
-        <v>2531</v>
+        <v>2611</v>
       </c>
       <c r="C6">
-        <v>342</v>
+        <v>1271</v>
       </c>
       <c r="D6">
-        <v>2437</v>
+        <v>2496</v>
       </c>
       <c r="E6">
-        <v>436</v>
+        <v>1386</v>
       </c>
       <c r="F6">
-        <v>2190</v>
+        <v>1728</v>
       </c>
       <c r="G6">
-        <v>341</v>
+        <v>883</v>
       </c>
       <c r="H6">
-        <v>247</v>
+        <v>768</v>
       </c>
       <c r="I6">
-        <v>95</v>
+        <v>503</v>
       </c>
       <c r="J6">
-        <v>633</v>
+        <v>115</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>14.52</v>
+        <v>4.62</v>
       </c>
       <c r="M6" s="1">
-        <v>0.71</v>
+        <v>0.11</v>
       </c>
       <c r="N6">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="O6">
-        <v>0.03</v>
+        <v>-0.16</v>
       </c>
       <c r="P6">
-        <v>97.04</v>
+        <v>28.13</v>
       </c>
       <c r="Q6">
-        <v>-40.51</v>
+        <v>-28.16</v>
       </c>
       <c r="R6" s="2">
         <v>4</v>
@@ -2599,55 +2406,55 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2850</v>
+        <v>3872</v>
       </c>
       <c r="B7">
-        <v>2508</v>
+        <v>2602</v>
       </c>
       <c r="C7">
-        <v>342</v>
+        <v>1270</v>
       </c>
       <c r="D7">
-        <v>2098</v>
+        <v>1843</v>
       </c>
       <c r="E7">
-        <v>752</v>
+        <v>2029</v>
       </c>
       <c r="F7">
-        <v>1895</v>
+        <v>1269</v>
       </c>
       <c r="G7">
-        <v>613</v>
+        <v>1333</v>
       </c>
       <c r="H7">
-        <v>203</v>
+        <v>574</v>
       </c>
       <c r="I7">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="J7">
-        <v>633</v>
+        <v>126</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>26.12</v>
+        <v>8.27</v>
       </c>
       <c r="M7" s="1">
-        <v>0.97</v>
+        <v>0.11</v>
       </c>
       <c r="N7">
-        <v>1.07</v>
+        <v>0.26</v>
       </c>
       <c r="O7">
-        <v>0.23</v>
+        <v>-0.19</v>
       </c>
       <c r="P7">
-        <v>97.04</v>
+        <v>28.13</v>
       </c>
       <c r="Q7">
-        <v>-41.82</v>
+        <v>-28.16</v>
       </c>
       <c r="R7" s="2">
         <v>4</v>
@@ -2658,55 +2465,55 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2846</v>
+        <v>3872</v>
       </c>
       <c r="B8">
-        <v>2504</v>
+        <v>2602</v>
       </c>
       <c r="C8">
-        <v>342</v>
+        <v>1270</v>
       </c>
       <c r="D8">
-        <v>1967</v>
+        <v>1629</v>
       </c>
       <c r="E8">
-        <v>879</v>
+        <v>2243</v>
       </c>
       <c r="F8">
-        <v>1778</v>
+        <v>1119</v>
       </c>
       <c r="G8">
-        <v>726</v>
+        <v>1483</v>
       </c>
       <c r="H8">
-        <v>189</v>
+        <v>510</v>
       </c>
       <c r="I8">
-        <v>153</v>
+        <v>760</v>
       </c>
       <c r="J8">
-        <v>914</v>
+        <v>192</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>31.51</v>
+        <v>10.02</v>
       </c>
       <c r="M8" s="1">
-        <v>1.1100000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="N8">
-        <v>1.22</v>
+        <v>0.25</v>
       </c>
       <c r="O8">
-        <v>0.25</v>
+        <v>-0.24</v>
       </c>
       <c r="P8">
-        <v>97.04</v>
+        <v>28.13</v>
       </c>
       <c r="Q8">
-        <v>-41.82</v>
+        <v>-28.16</v>
       </c>
       <c r="R8" s="2">
         <v>4</v>
@@ -2717,55 +2524,55 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2798</v>
+        <v>3854</v>
       </c>
       <c r="B9">
-        <v>2456</v>
+        <v>2586</v>
       </c>
       <c r="C9">
-        <v>342</v>
+        <v>1268</v>
       </c>
       <c r="D9">
-        <v>1586</v>
+        <v>1169</v>
       </c>
       <c r="E9">
-        <v>1212</v>
+        <v>2685</v>
       </c>
       <c r="F9">
-        <v>1414</v>
+        <v>783</v>
       </c>
       <c r="G9">
-        <v>1042</v>
+        <v>1803</v>
       </c>
       <c r="H9">
-        <v>172</v>
+        <v>386</v>
       </c>
       <c r="I9">
-        <v>170</v>
+        <v>882</v>
       </c>
       <c r="J9">
-        <v>933</v>
+        <v>192</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>52.96</v>
+        <v>16.61</v>
       </c>
       <c r="M9" s="1">
-        <v>1.82</v>
+        <v>0.15</v>
       </c>
       <c r="N9">
-        <v>1.93</v>
+        <v>0.36</v>
       </c>
       <c r="O9">
-        <v>1.05</v>
+        <v>-0.27</v>
       </c>
       <c r="P9">
-        <v>97.04</v>
+        <v>28.13</v>
       </c>
       <c r="Q9">
-        <v>-41.82</v>
+        <v>-28.16</v>
       </c>
       <c r="R9" s="2">
         <v>4</v>
@@ -2776,55 +2583,55 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2866</v>
+        <v>3880</v>
       </c>
       <c r="B10">
-        <v>2525</v>
+        <v>2611</v>
       </c>
       <c r="C10">
-        <v>341</v>
+        <v>1269</v>
       </c>
       <c r="D10">
-        <v>2572</v>
+        <v>2700</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>1180</v>
       </c>
       <c r="F10">
-        <v>2304</v>
+        <v>1865</v>
       </c>
       <c r="G10">
-        <v>221</v>
+        <v>746</v>
       </c>
       <c r="H10">
-        <v>268</v>
+        <v>835</v>
       </c>
       <c r="I10">
-        <v>73</v>
+        <v>434</v>
       </c>
       <c r="J10">
-        <v>1053</v>
+        <v>119</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>17.100000000000001</v>
+        <v>5.67</v>
       </c>
       <c r="M10" s="1">
-        <v>0.93</v>
+        <v>0.17</v>
       </c>
       <c r="N10">
-        <v>0.99</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O10">
-        <v>0.53</v>
+        <v>-0.08</v>
       </c>
       <c r="P10">
-        <v>97.04</v>
+        <v>28.13</v>
       </c>
       <c r="Q10">
-        <v>-62.36</v>
+        <v>-28.16</v>
       </c>
       <c r="R10" s="2">
         <v>5</v>
@@ -2835,55 +2642,55 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2833</v>
+        <v>3869</v>
       </c>
       <c r="B11">
-        <v>2492</v>
+        <v>2601</v>
       </c>
       <c r="C11">
-        <v>341</v>
+        <v>1268</v>
       </c>
       <c r="D11">
-        <v>2310</v>
+        <v>2114</v>
       </c>
       <c r="E11">
-        <v>523</v>
+        <v>1755</v>
       </c>
       <c r="F11">
-        <v>2080</v>
+        <v>1456</v>
       </c>
       <c r="G11">
-        <v>412</v>
+        <v>1145</v>
       </c>
       <c r="H11">
-        <v>230</v>
+        <v>658</v>
       </c>
       <c r="I11">
-        <v>111</v>
+        <v>610</v>
       </c>
       <c r="J11">
-        <v>1053</v>
+        <v>178</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>31.56</v>
+        <v>10.23</v>
       </c>
       <c r="M11" s="1">
-        <v>1.41</v>
+        <v>0.22</v>
       </c>
       <c r="N11">
-        <v>1.51</v>
+        <v>0.36</v>
       </c>
       <c r="O11">
-        <v>0.72</v>
+        <v>-0.06</v>
       </c>
       <c r="P11">
-        <v>97.04</v>
+        <v>28.13</v>
       </c>
       <c r="Q11">
-        <v>-62.36</v>
+        <v>-28.16</v>
       </c>
       <c r="R11" s="2">
         <v>5</v>
@@ -2894,55 +2701,55 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2826</v>
+        <v>3867</v>
       </c>
       <c r="B12">
-        <v>2485</v>
+        <v>2600</v>
       </c>
       <c r="C12">
-        <v>341</v>
+        <v>1267</v>
       </c>
       <c r="D12">
-        <v>2198</v>
+        <v>1870</v>
       </c>
       <c r="E12">
-        <v>628</v>
+        <v>1997</v>
       </c>
       <c r="F12">
-        <v>1983</v>
+        <v>1292</v>
       </c>
       <c r="G12">
-        <v>502</v>
+        <v>1308</v>
       </c>
       <c r="H12">
-        <v>215</v>
+        <v>578</v>
       </c>
       <c r="I12">
-        <v>126</v>
+        <v>689</v>
       </c>
       <c r="J12">
-        <v>1053</v>
+        <v>193</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>38.450000000000003</v>
+        <v>12.5</v>
       </c>
       <c r="M12" s="1">
-        <v>1.64</v>
+        <v>0.2</v>
       </c>
       <c r="N12">
-        <v>1.76</v>
+        <v>0.34</v>
       </c>
       <c r="O12">
-        <v>0.81</v>
+        <v>-0.1</v>
       </c>
       <c r="P12">
-        <v>97.04</v>
+        <v>28.13</v>
       </c>
       <c r="Q12">
-        <v>-62.36</v>
+        <v>-28.16</v>
       </c>
       <c r="R12" s="2">
         <v>5</v>
@@ -2953,55 +2760,55 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2755</v>
+        <v>3844</v>
       </c>
       <c r="B13">
-        <v>2415</v>
+        <v>2580</v>
       </c>
       <c r="C13">
-        <v>340</v>
+        <v>1264</v>
       </c>
       <c r="D13">
-        <v>1807</v>
+        <v>1284</v>
       </c>
       <c r="E13">
-        <v>948</v>
+        <v>2560</v>
       </c>
       <c r="F13">
-        <v>1620</v>
+        <v>880</v>
       </c>
       <c r="G13">
-        <v>795</v>
+        <v>1700</v>
       </c>
       <c r="H13">
-        <v>187</v>
+        <v>404</v>
       </c>
       <c r="I13">
-        <v>153</v>
+        <v>860</v>
       </c>
       <c r="J13">
-        <v>1053</v>
+        <v>256</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>67.430000000000007</v>
+        <v>21.55</v>
       </c>
       <c r="M13" s="1">
-        <v>2.95</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N13">
-        <v>3.1</v>
+        <v>0.53</v>
       </c>
       <c r="O13">
-        <v>1.86</v>
+        <v>-0.21</v>
       </c>
       <c r="P13">
-        <v>97.04</v>
+        <v>28.13</v>
       </c>
       <c r="Q13">
-        <v>-62.36</v>
+        <v>-28.16</v>
       </c>
       <c r="R13" s="2">
         <v>5</v>
@@ -3012,55 +2819,55 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2846</v>
+        <v>3871</v>
       </c>
       <c r="B14">
-        <v>2506</v>
+        <v>2605</v>
       </c>
       <c r="C14">
-        <v>340</v>
+        <v>1266</v>
       </c>
       <c r="D14">
-        <v>2754</v>
+        <v>3233</v>
       </c>
       <c r="E14">
-        <v>92</v>
+        <v>638</v>
       </c>
       <c r="F14">
-        <v>2442</v>
+        <v>2237</v>
       </c>
       <c r="G14">
-        <v>64</v>
+        <v>368</v>
       </c>
       <c r="H14">
-        <v>312</v>
+        <v>996</v>
       </c>
       <c r="I14">
-        <v>28</v>
+        <v>270</v>
       </c>
       <c r="J14">
-        <v>1458</v>
+        <v>237</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>25.5</v>
+        <v>9.9</v>
       </c>
       <c r="M14" s="1">
-        <v>1.1599999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="N14">
-        <v>1.6</v>
+        <v>0.62</v>
       </c>
       <c r="O14">
-        <v>-2.1</v>
+        <v>-0.1</v>
       </c>
       <c r="P14">
-        <v>97.04</v>
+        <v>28.13</v>
       </c>
       <c r="Q14">
-        <v>-640.34</v>
+        <v>-29</v>
       </c>
       <c r="R14" s="2">
         <v>10</v>
@@ -3071,55 +2878,55 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2796</v>
+        <v>3851</v>
       </c>
       <c r="B15">
-        <v>2457</v>
+        <v>2590</v>
       </c>
       <c r="C15">
-        <v>339</v>
+        <v>1261</v>
       </c>
       <c r="D15">
-        <v>2638</v>
+        <v>2810</v>
       </c>
       <c r="E15">
-        <v>158</v>
+        <v>1041</v>
       </c>
       <c r="F15">
-        <v>2340</v>
+        <v>1962</v>
       </c>
       <c r="G15">
-        <v>117</v>
+        <v>628</v>
       </c>
       <c r="H15">
-        <v>298</v>
+        <v>848</v>
       </c>
       <c r="I15">
-        <v>41</v>
+        <v>413</v>
       </c>
       <c r="J15">
-        <v>1479</v>
+        <v>289</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>47.65</v>
+        <v>18.66</v>
       </c>
       <c r="M15" s="1">
-        <v>2.29</v>
+        <v>0.53</v>
       </c>
       <c r="N15">
-        <v>2.81</v>
+        <v>0.88</v>
       </c>
       <c r="O15">
-        <v>-1.48</v>
+        <v>-0.18</v>
       </c>
       <c r="P15">
-        <v>97.04</v>
+        <v>28.13</v>
       </c>
       <c r="Q15">
-        <v>-640.34</v>
+        <v>-29</v>
       </c>
       <c r="R15" s="2">
         <v>10</v>
@@ -3130,55 +2937,55 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2777</v>
+        <v>3843</v>
       </c>
       <c r="B16">
-        <v>2440</v>
+        <v>2585</v>
       </c>
       <c r="C16">
-        <v>337</v>
+        <v>1258</v>
       </c>
       <c r="D16">
-        <v>2588</v>
+        <v>2626</v>
       </c>
       <c r="E16">
-        <v>189</v>
+        <v>1217</v>
       </c>
       <c r="F16">
-        <v>2295</v>
+        <v>1847</v>
       </c>
       <c r="G16">
-        <v>145</v>
+        <v>738</v>
       </c>
       <c r="H16">
-        <v>293</v>
+        <v>779</v>
       </c>
       <c r="I16">
-        <v>44</v>
+        <v>479</v>
       </c>
       <c r="J16">
-        <v>1496</v>
+        <v>289</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>59.13</v>
+        <v>23.06</v>
       </c>
       <c r="M16" s="1">
-        <v>2.83</v>
+        <v>0.59</v>
       </c>
       <c r="N16">
-        <v>3.35</v>
+        <v>1.02</v>
       </c>
       <c r="O16">
-        <v>-0.97</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="P16">
-        <v>97.04</v>
+        <v>28.13</v>
       </c>
       <c r="Q16">
-        <v>-640.34</v>
+        <v>-29</v>
       </c>
       <c r="R16" s="2">
         <v>10</v>
@@ -3189,55 +2996,55 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2646</v>
+        <v>3787</v>
       </c>
       <c r="B17">
-        <v>2313</v>
+        <v>2540</v>
       </c>
       <c r="C17">
-        <v>333</v>
+        <v>1247</v>
       </c>
       <c r="D17">
-        <v>2339</v>
+        <v>2023</v>
       </c>
       <c r="E17">
-        <v>307</v>
+        <v>1764</v>
       </c>
       <c r="F17">
-        <v>2078</v>
+        <v>1470</v>
       </c>
       <c r="G17">
-        <v>235</v>
+        <v>1070</v>
       </c>
       <c r="H17">
-        <v>261</v>
+        <v>553</v>
       </c>
       <c r="I17">
-        <v>72</v>
+        <v>694</v>
       </c>
       <c r="J17">
-        <v>1571</v>
+        <v>451</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>108.11</v>
+        <v>42.59</v>
       </c>
       <c r="M17" s="1">
-        <v>5.87</v>
+        <v>1.17</v>
       </c>
       <c r="N17">
-        <v>6.49</v>
+        <v>1.97</v>
       </c>
       <c r="O17">
-        <v>1.59</v>
+        <v>-0.47</v>
       </c>
       <c r="P17">
-        <v>97.04</v>
+        <v>28.13</v>
       </c>
       <c r="Q17">
-        <v>-640.34</v>
+        <v>-36.97</v>
       </c>
       <c r="R17" s="2">
         <v>10</v>
